--- a/‏‏ المرحلة الرابعة 04/مرفق4.xlsx
+++ b/‏‏ المرحلة الرابعة 04/مرفق4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saeid\Desktop\هندسة برمجيات كلية\مشروع هندسة البرمجيات\‏‏ المرحلة الرابعة 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E8033-D265-406C-B1AF-2D19ECCAA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDBD6EC-9B49-48EB-9F9C-D082C70E2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1812" yWindow="1164" windowWidth="21228" windowHeight="13236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -957,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
